--- a/resources/experiment 1/metrics/MAPE/average time/Ictus.xlsx
+++ b/resources/experiment 1/metrics/MAPE/average time/Ictus.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09403725141379425</v>
+        <v>0.09403725141379426</v>
       </c>
       <c r="C2" t="n">
         <v>0.09403725141379425</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02785112394419026</v>
+        <v>0.02893996477793323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02785112394419026</v>
+        <v>0.02894549778586289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02785112394419026</v>
+        <v>0.02942216143007609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02372293961919878</v>
+        <v>0.03112670636969271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02372293961919878</v>
+        <v>0.0299275282455752</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02372293961919878</v>
+        <v>0.02991053817784549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03820437016491623</v>
+        <v>0.02641729762717101</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03820437016491623</v>
+        <v>0.02561770000408946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03820437016491623</v>
+        <v>0.02294381280810391</v>
       </c>
     </row>
   </sheetData>
